--- a/Ideas.xlsx
+++ b/Ideas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Cleaning Model</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Obstacle avoidence robot #2</t>
+  </si>
+  <si>
+    <t>Using IMU</t>
+  </si>
+  <si>
+    <t>Blog + video</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/blog/real-time-orientation-display-with-the-minimu-9-v2/</t>
   </si>
 </sst>
 </file>
@@ -740,10 +749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +922,17 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -931,6 +951,7 @@
     <hyperlink ref="D14" r:id="rId12"/>
     <hyperlink ref="D15" r:id="rId13"/>
     <hyperlink ref="D9" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
